--- a/biology/Botanique/Litchi_(genre)/Litchi_(genre).xlsx
+++ b/biology/Botanique/Litchi_(genre)/Litchi_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Litchi est un genre de plantes, classé dans la famille des Sapindaceae. Il ne comprend actuellement qu'une seule espèce, Litchi chinensis, un arbre originaire de Chine qui produit les fruits appelés litchis.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (3 juil. 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (3 juil. 2011) :
 Litchi chinensis Sonn.</t>
         </is>
       </c>
